--- a/dataset/metadata/InfoAccession_Asian_African.xlsx
+++ b/dataset/metadata/InfoAccession_Asian_African.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRG\Rice-Panicle-Architecture-Analysis-DL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRG\Rice-Panicle-Architecture-Analysis-DL\dataset\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -27,10 +27,10 @@
     <t>Origin</t>
   </si>
   <si>
-    <t>O.glaberrima</t>
+    <t>O. sativa</t>
   </si>
   <si>
-    <t>O. sativa</t>
+    <t>O. glaberrima</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -415,7 +417,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -423,7 +425,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -431,7 +433,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -439,7 +441,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -447,7 +449,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,7 +480,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -486,7 +488,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -494,7 +496,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -502,7 +504,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -510,7 +512,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -518,7 +520,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -626,7 +628,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -634,7 +636,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -642,7 +644,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -650,7 +652,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -658,7 +660,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -666,7 +668,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -674,7 +676,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -682,7 +684,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,7 +692,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -698,7 +700,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -706,7 +708,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -714,7 +716,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -722,7 +724,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -730,7 +732,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -738,7 +740,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -746,7 +748,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -754,7 +756,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -762,7 +764,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -770,7 +772,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -778,7 +780,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -786,7 +788,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -794,7 +796,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -802,7 +804,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -810,7 +812,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -818,7 +820,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -826,7 +828,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -834,7 +836,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -842,7 +844,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -850,7 +852,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -858,7 +860,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
